--- a/Customer.xlsx
+++ b/Customer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robch\Documents\Movie Rental Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b59bc32163ae19bd/Documents/GitHub/Ian-Brandon-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31442181-D812-4F73-95DB-8DDA05940037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{31442181-D812-4F73-95DB-8DDA05940037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B2345CC-47F8-4B47-A546-F0B61B843C1D}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3336" windowWidth="17280" windowHeight="9024" xr2:uid="{2113B199-B00F-485E-A4B8-DFD68B54C5DE}"/>
+    <workbookView xWindow="-21930" yWindow="3300" windowWidth="18900" windowHeight="10965" xr2:uid="{2113B199-B00F-485E-A4B8-DFD68B54C5DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -478,16 +478,16 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,11 +500,9 @@
       <c r="D1">
         <v>75043846</v>
       </c>
-      <c r="E1" s="1">
-        <v>37414</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -517,11 +515,9 @@
       <c r="D2">
         <v>57687543</v>
       </c>
-      <c r="E2" s="1">
-        <v>38423</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -534,11 +530,9 @@
       <c r="D3">
         <v>87075136</v>
       </c>
-      <c r="E3" s="1">
-        <v>39278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -551,11 +545,9 @@
       <c r="D4">
         <v>33383777</v>
       </c>
-      <c r="E4" s="1">
-        <v>40107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -568,11 +560,9 @@
       <c r="D5">
         <v>93569784</v>
       </c>
-      <c r="E5" s="1">
-        <v>36644</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -585,11 +575,9 @@
       <c r="D6">
         <v>92660292</v>
       </c>
-      <c r="E6" s="1">
-        <v>38738</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -602,11 +590,9 @@
       <c r="D7">
         <v>88825204</v>
       </c>
-      <c r="E7" s="1">
-        <v>38003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -619,11 +605,9 @@
       <c r="D8">
         <v>79092088</v>
       </c>
-      <c r="E8" s="1">
-        <v>37888</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -636,11 +620,9 @@
       <c r="D9">
         <v>48929121</v>
       </c>
-      <c r="E9" s="1">
-        <v>37079</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -653,9 +635,7 @@
       <c r="D10">
         <v>33943893</v>
       </c>
-      <c r="E10" s="1">
-        <v>36592</v>
-      </c>
+      <c r="E10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
